--- a/data/trans_orig/P07B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P07B_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C51DC28-9679-4201-AC7F-440F7F01D57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF0A4C32-9EA6-425D-A018-FC1D7F147143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F30B81B-890A-4F16-8BE4-CAB94448FCFA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB60AE6B-61DE-42E9-82CA-022AEDDFCCC7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="318">
   <si>
     <t>Población según salud mental autopercibida en 2023 (Tasa respuesta: 99,99%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>0,63%</t>
   </si>
   <si>
-    <t>3,13%</t>
+    <t>3,14%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,79%</t>
+    <t>1,5%</t>
   </si>
   <si>
     <t>Regular</t>
@@ -98,28 +98,28 @@
     <t>2,22%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
   </si>
   <si>
     <t>5,83%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
   </si>
   <si>
     <t>Buena</t>
@@ -128,28 +128,28 @@
     <t>23,12%</t>
   </si>
   <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
   </si>
   <si>
     <t>35,09%</t>
   </si>
   <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
   </si>
   <si>
     <t>28,92%</t>
   </si>
   <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
   </si>
   <si>
     <t>Muy buena</t>
@@ -158,847 +158,835 @@
     <t>36,28%</t>
   </si>
   <si>
-    <t>28,69%</t>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
   </si>
   <si>
     <t>44,25%</t>
   </si>
   <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
   </si>
   <si>
     <t>32,25%</t>
   </si>
   <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
   </si>
   <si>
     <t>15,74%</t>
   </si>
   <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1413,7 +1401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F5F13E-446B-43FB-9C9C-1896890FEC39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FDF4CA-D4E0-48E1-B5B3-E50B9CB7876F}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1866,7 +1854,7 @@
         <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -1875,13 +1863,13 @@
         <v>7795</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1896,13 +1884,13 @@
         <v>17472</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -1911,13 +1899,13 @@
         <v>32593</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -1926,13 +1914,13 @@
         <v>50065</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1947,13 +1935,13 @@
         <v>136537</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>163</v>
@@ -1962,13 +1950,13 @@
         <v>164717</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>261</v>
@@ -1977,13 +1965,13 @@
         <v>301254</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,13 +1986,13 @@
         <v>184108</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>198</v>
@@ -2013,13 +2001,13 @@
         <v>207512</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>332</v>
@@ -2028,13 +2016,13 @@
         <v>391620</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,13 +2037,13 @@
         <v>88902</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>81</v>
@@ -2064,13 +2052,13 @@
         <v>87974</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>139</v>
@@ -2079,13 +2067,13 @@
         <v>176876</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,7 +2129,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2153,10 +2141,10 @@
         <v>7660</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>106</v>
@@ -2282,7 +2270,7 @@
         <v>542</v>
       </c>
       <c r="N18" s="7">
-        <v>462573</v>
+        <v>462572</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>128</v>
@@ -2333,7 +2321,7 @@
         <v>575</v>
       </c>
       <c r="N19" s="7">
-        <v>468692</v>
+        <v>468691</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>137</v>
@@ -2435,7 +2423,7 @@
         <v>1393</v>
       </c>
       <c r="N21" s="7">
-        <v>1167095</v>
+        <v>1167094</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -2461,7 +2449,7 @@
         <v>9930</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>20</v>
@@ -2590,7 +2578,7 @@
         <v>848</v>
       </c>
       <c r="N24" s="7">
-        <v>713157</v>
+        <v>713156</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>172</v>
@@ -2692,16 +2680,16 @@
         <v>193</v>
       </c>
       <c r="N26" s="7">
-        <v>174459</v>
+        <v>174458</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,7 +2731,7 @@
         <v>1806</v>
       </c>
       <c r="N27" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
@@ -2757,7 +2745,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2769,13 +2757,13 @@
         <v>7948</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -2784,13 +2772,13 @@
         <v>10277</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M28" s="7">
         <v>26</v>
@@ -2799,13 +2787,13 @@
         <v>18224</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2808,13 @@
         <v>43636</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>102</v>
@@ -2835,13 +2823,13 @@
         <v>62925</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M29" s="7">
         <v>149</v>
@@ -2850,13 +2838,13 @@
         <v>106561</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2859,13 @@
         <v>302937</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>505</v>
@@ -2886,13 +2874,13 @@
         <v>296066</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>845</v>
@@ -2901,13 +2889,13 @@
         <v>599003</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,13 +2910,13 @@
         <v>187626</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H31" s="7">
         <v>296</v>
@@ -2937,13 +2925,13 @@
         <v>176141</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>500</v>
@@ -2952,13 +2940,13 @@
         <v>363768</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,7 +2961,7 @@
         <v>58011</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>229</v>
@@ -3092,13 +3080,13 @@
         <v>22355</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>243</v>
+        <v>106</v>
       </c>
       <c r="M34" s="7">
         <v>56</v>
@@ -3107,13 +3095,13 @@
         <v>29617</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3116,13 @@
         <v>49672</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H35" s="7">
         <v>228</v>
@@ -3143,13 +3131,13 @@
         <v>124882</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M35" s="7">
         <v>308</v>
@@ -3158,13 +3146,13 @@
         <v>174555</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,16 +3164,16 @@
         <v>584</v>
       </c>
       <c r="D36" s="7">
-        <v>406959</v>
+        <v>406960</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H36" s="7">
         <v>933</v>
@@ -3194,13 +3182,13 @@
         <v>615394</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M36" s="7">
         <v>1517</v>
@@ -3209,13 +3197,13 @@
         <v>1022354</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3218,13 @@
         <v>176019</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H37" s="7">
         <v>415</v>
@@ -3245,13 +3233,13 @@
         <v>213683</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M37" s="7">
         <v>689</v>
@@ -3260,13 +3248,13 @@
         <v>389702</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3269,13 @@
         <v>57842</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H38" s="7">
         <v>89</v>
@@ -3296,13 +3284,13 @@
         <v>50323</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M38" s="7">
         <v>166</v>
@@ -3311,13 +3299,13 @@
         <v>108165</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>280</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,7 +3317,7 @@
         <v>1028</v>
       </c>
       <c r="D39" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>58</v>
@@ -3385,13 +3373,13 @@
         <v>34175</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>109</v>
+        <v>280</v>
       </c>
       <c r="H40" s="7">
         <v>80</v>
@@ -3400,13 +3388,13 @@
         <v>52406</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K40" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M40" s="7">
         <v>119</v>
@@ -3415,13 +3403,13 @@
         <v>86581</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P40" s="7" t="s">
-        <v>285</v>
-      </c>
       <c r="Q40" s="7" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3424,13 @@
         <v>181828</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>287</v>
+        <v>164</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H41" s="7">
         <v>482</v>
@@ -3451,13 +3439,13 @@
         <v>325475</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M41" s="7">
         <v>677</v>
@@ -3466,13 +3454,13 @@
         <v>507303</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3475,13 @@
         <v>1497411</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H42" s="7">
         <v>2555</v>
@@ -3502,13 +3490,13 @@
         <v>1812799</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M42" s="7">
         <v>4122</v>
@@ -3517,13 +3505,13 @@
         <v>3310210</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3526,13 @@
         <v>1138918</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H43" s="7">
         <v>1714</v>
@@ -3553,13 +3541,13 @@
         <v>1189526</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>310</v>
+        <v>228</v>
       </c>
       <c r="M43" s="7">
         <v>2858</v>
@@ -3568,13 +3556,13 @@
         <v>2328444</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>224</v>
+        <v>307</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3577,13 @@
         <v>532896</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>314</v>
+        <v>192</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H44" s="7">
         <v>535</v>
@@ -3607,10 +3595,10 @@
         <v>190</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M44" s="7">
         <v>966</v>
@@ -3619,13 +3607,13 @@
         <v>987667</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,7 +3669,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P07B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P07B_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF0A4C32-9EA6-425D-A018-FC1D7F147143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98998623-31BB-4551-9ACD-CC95E7D8CA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB60AE6B-61DE-42E9-82CA-022AEDDFCCC7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{78E2A54E-A203-4D2C-8826-B89AD13AA6DE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1401,7 +1401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FDF4CA-D4E0-48E1-B5B3-E50B9CB7876F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35D98F7-0D2E-40C3-AD02-7F3797EEB3AC}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P07B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P07B_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98998623-31BB-4551-9ACD-CC95E7D8CA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD9FBB30-3570-45BD-A967-AE42150B9424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{78E2A54E-A203-4D2C-8826-B89AD13AA6DE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{31F4B780-420D-4F30-8A46-28830D983044}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="322">
   <si>
     <t>Población según salud mental autopercibida en 2023 (Tasa respuesta: 99,99%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>0,63%</t>
   </si>
   <si>
-    <t>3,14%</t>
+    <t>3,13%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,5%</t>
+    <t>1,79%</t>
   </si>
   <si>
     <t>Regular</t>
@@ -98,850 +98,859 @@
     <t>2,22%</t>
   </si>
   <si>
-    <t>0,59%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>Muy buena</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>Buena</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
   </si>
   <si>
     <t>24,15%</t>
   </si>
   <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>Muy buena</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
+    <t>10,13%</t>
   </si>
   <si>
     <t>7,03%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
   </si>
   <si>
     <t>44,23%</t>
   </si>
   <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
   </si>
   <si>
     <t>47,27%</t>
   </si>
   <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
   </si>
   <si>
     <t>45,85%</t>
   </si>
   <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
   </si>
   <si>
     <t>33,64%</t>
@@ -950,43 +959,46 @@
     <t>31,31%</t>
   </si>
   <si>
-    <t>35,71%</t>
+    <t>35,44%</t>
   </si>
   <si>
     <t>31,02%</t>
   </si>
   <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
   </si>
   <si>
     <t>15,74%</t>
   </si>
   <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1401,7 +1413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35D98F7-0D2E-40C3-AD02-7F3797EEB3AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F1E99F-2261-4109-82EB-EF8C11E9D48D}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1854,7 +1866,7 @@
         <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -1863,13 +1875,13 @@
         <v>7795</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1884,13 +1896,13 @@
         <v>17472</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -1899,13 +1911,13 @@
         <v>32593</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -1914,13 +1926,13 @@
         <v>50065</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1935,13 +1947,13 @@
         <v>136537</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>163</v>
@@ -1950,13 +1962,13 @@
         <v>164717</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>261</v>
@@ -1965,13 +1977,13 @@
         <v>301254</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,13 +1998,13 @@
         <v>184108</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>198</v>
@@ -2001,13 +2013,13 @@
         <v>207512</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>332</v>
@@ -2016,13 +2028,13 @@
         <v>391620</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,13 +2049,13 @@
         <v>88902</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>81</v>
@@ -2052,13 +2064,13 @@
         <v>87974</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>139</v>
@@ -2067,13 +2079,13 @@
         <v>176876</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,7 +2141,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2141,10 +2153,10 @@
         <v>7660</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>106</v>
@@ -2270,7 +2282,7 @@
         <v>542</v>
       </c>
       <c r="N18" s="7">
-        <v>462572</v>
+        <v>462573</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>128</v>
@@ -2321,7 +2333,7 @@
         <v>575</v>
       </c>
       <c r="N19" s="7">
-        <v>468691</v>
+        <v>468692</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>137</v>
@@ -2423,7 +2435,7 @@
         <v>1393</v>
       </c>
       <c r="N21" s="7">
-        <v>1167094</v>
+        <v>1167095</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -2449,7 +2461,7 @@
         <v>9930</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>20</v>
@@ -2578,7 +2590,7 @@
         <v>848</v>
       </c>
       <c r="N24" s="7">
-        <v>713156</v>
+        <v>713157</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>172</v>
@@ -2680,16 +2692,16 @@
         <v>193</v>
       </c>
       <c r="N26" s="7">
-        <v>174458</v>
+        <v>174459</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,7 +2743,7 @@
         <v>1806</v>
       </c>
       <c r="N27" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
@@ -2745,7 +2757,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2757,13 +2769,13 @@
         <v>7948</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -2772,13 +2784,13 @@
         <v>10277</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M28" s="7">
         <v>26</v>
@@ -2787,13 +2799,13 @@
         <v>18224</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2820,13 @@
         <v>43636</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>102</v>
@@ -2823,13 +2835,13 @@
         <v>62925</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M29" s="7">
         <v>149</v>
@@ -2838,13 +2850,13 @@
         <v>106561</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,13 +2871,13 @@
         <v>302937</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>505</v>
@@ -2874,13 +2886,13 @@
         <v>296066</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>845</v>
@@ -2889,13 +2901,13 @@
         <v>599003</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,13 +2922,13 @@
         <v>187626</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H31" s="7">
         <v>296</v>
@@ -2925,13 +2937,13 @@
         <v>176141</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>500</v>
@@ -2940,13 +2952,13 @@
         <v>363768</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,7 +2973,7 @@
         <v>58011</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>229</v>
@@ -3080,13 +3092,13 @@
         <v>22355</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>106</v>
+        <v>243</v>
       </c>
       <c r="M34" s="7">
         <v>56</v>
@@ -3095,13 +3107,13 @@
         <v>29617</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3128,13 @@
         <v>49672</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H35" s="7">
         <v>228</v>
@@ -3131,13 +3143,13 @@
         <v>124882</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M35" s="7">
         <v>308</v>
@@ -3146,13 +3158,13 @@
         <v>174555</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,16 +3176,16 @@
         <v>584</v>
       </c>
       <c r="D36" s="7">
-        <v>406960</v>
+        <v>406959</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H36" s="7">
         <v>933</v>
@@ -3182,13 +3194,13 @@
         <v>615394</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M36" s="7">
         <v>1517</v>
@@ -3197,13 +3209,13 @@
         <v>1022354</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3230,13 @@
         <v>176019</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="H37" s="7">
         <v>415</v>
@@ -3233,13 +3245,13 @@
         <v>213683</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M37" s="7">
         <v>689</v>
@@ -3248,13 +3260,13 @@
         <v>389702</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3281,13 @@
         <v>57842</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H38" s="7">
         <v>89</v>
@@ -3284,13 +3296,13 @@
         <v>50323</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M38" s="7">
         <v>166</v>
@@ -3299,13 +3311,13 @@
         <v>108165</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>69</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,7 +3329,7 @@
         <v>1028</v>
       </c>
       <c r="D39" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>58</v>
@@ -3373,13 +3385,13 @@
         <v>34175</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>278</v>
+        <v>199</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>280</v>
+        <v>109</v>
       </c>
       <c r="H40" s="7">
         <v>80</v>
@@ -3388,13 +3400,13 @@
         <v>52406</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M40" s="7">
         <v>119</v>
@@ -3403,13 +3415,13 @@
         <v>86581</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3436,13 @@
         <v>181828</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>164</v>
+        <v>287</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H41" s="7">
         <v>482</v>
@@ -3439,13 +3451,13 @@
         <v>325475</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M41" s="7">
         <v>677</v>
@@ -3454,13 +3466,13 @@
         <v>507303</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3487,13 @@
         <v>1497411</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H42" s="7">
         <v>2555</v>
@@ -3490,13 +3502,13 @@
         <v>1812799</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M42" s="7">
         <v>4122</v>
@@ -3505,13 +3517,13 @@
         <v>3310210</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3538,13 @@
         <v>1138918</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H43" s="7">
         <v>1714</v>
@@ -3541,13 +3553,13 @@
         <v>1189526</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>228</v>
+        <v>310</v>
       </c>
       <c r="M43" s="7">
         <v>2858</v>
@@ -3556,13 +3568,13 @@
         <v>2328444</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>307</v>
+        <v>224</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,13 +3589,13 @@
         <v>532896</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>192</v>
+        <v>314</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H44" s="7">
         <v>535</v>
@@ -3595,10 +3607,10 @@
         <v>190</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M44" s="7">
         <v>966</v>
@@ -3607,13 +3619,13 @@
         <v>987667</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,7 +3681,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P07B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P07B_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD9FBB30-3570-45BD-A967-AE42150B9424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10580CE3-2F90-4881-91ED-C539C8EEC6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{31F4B780-420D-4F30-8A46-28830D983044}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8A9300E1-3D8F-4F8D-8982-D2AEB006BBF2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="358">
   <si>
     <t>Población según salud mental autopercibida en 2023 (Tasa respuesta: 99,99%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Mala</t>
@@ -80,283 +80,688 @@
     <t>1,11%</t>
   </si>
   <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>Muy buena</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>Buena</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>Muy buena</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
   </si>
   <si>
     <t>46,66%</t>
   </si>
   <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -365,640 +770,343 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
   </si>
   <si>
     <t>9,62%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
   </si>
   <si>
     <t>46,72%</t>
   </si>
   <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1413,8 +1521,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F1E99F-2261-4109-82EB-EF8C11E9D48D}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9275A32D-FE61-4427-B290-E6D74DB53D94}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1549,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2243</v>
+        <v>1621</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1564,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>2243</v>
+        <v>1621</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1585,7 +1693,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>8370</v>
+        <v>8876</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1600,7 +1708,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>20693</v>
+        <v>18665</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1615,7 +1723,7 @@
         <v>14</v>
       </c>
       <c r="N5" s="7">
-        <v>29063</v>
+        <v>27541</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>25</v>
@@ -1636,7 +1744,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="7">
-        <v>87326</v>
+        <v>86921</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>29</v>
@@ -1651,7 +1759,7 @@
         <v>71</v>
       </c>
       <c r="I6" s="7">
-        <v>124544</v>
+        <v>109417</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>32</v>
@@ -1666,7 +1774,7 @@
         <v>109</v>
       </c>
       <c r="N6" s="7">
-        <v>211870</v>
+        <v>196338</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>35</v>
@@ -1687,7 +1795,7 @@
         <v>69</v>
       </c>
       <c r="D7" s="7">
-        <v>137004</v>
+        <v>138319</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -1702,7 +1810,7 @@
         <v>69</v>
       </c>
       <c r="I7" s="7">
-        <v>110837</v>
+        <v>96257</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>42</v>
@@ -1717,67 +1825,67 @@
         <v>138</v>
       </c>
       <c r="N7" s="7">
-        <v>247841</v>
+        <v>234576</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>62</v>
       </c>
       <c r="D8" s="7">
-        <v>144978</v>
+        <v>165872</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>55</v>
       </c>
       <c r="I8" s="7">
-        <v>96639</v>
+        <v>87239</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M8" s="7">
         <v>117</v>
       </c>
       <c r="N8" s="7">
-        <v>241618</v>
+        <v>253111</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1789,51 +1897,51 @@
         <v>172</v>
       </c>
       <c r="D9" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>207</v>
       </c>
       <c r="I9" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>379</v>
       </c>
       <c r="N9" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1842,46 +1950,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1376</v>
+        <v>1140</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>6419</v>
+        <v>5689</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>7795</v>
+        <v>6829</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,46 +2001,46 @@
         <v>11</v>
       </c>
       <c r="D11" s="7">
-        <v>17472</v>
+        <v>17743</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
       </c>
       <c r="I11" s="7">
-        <v>32593</v>
+        <v>84883</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
       </c>
       <c r="N11" s="7">
-        <v>50065</v>
+        <v>102626</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,46 +2052,46 @@
         <v>98</v>
       </c>
       <c r="D12" s="7">
-        <v>136537</v>
+        <v>127130</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>163</v>
       </c>
       <c r="I12" s="7">
-        <v>164717</v>
+        <v>144001</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>261</v>
       </c>
       <c r="N12" s="7">
-        <v>301254</v>
+        <v>271130</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,97 +2103,97 @@
         <v>134</v>
       </c>
       <c r="D13" s="7">
-        <v>184108</v>
+        <v>187217</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>198</v>
       </c>
       <c r="I13" s="7">
-        <v>207512</v>
+        <v>195834</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>332</v>
       </c>
       <c r="N13" s="7">
-        <v>391620</v>
+        <v>383051</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>58</v>
       </c>
       <c r="D14" s="7">
-        <v>88902</v>
+        <v>90318</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>81</v>
       </c>
       <c r="I14" s="7">
-        <v>87974</v>
+        <v>81685</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>139</v>
       </c>
       <c r="N14" s="7">
-        <v>176876</v>
+        <v>172003</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,51 +2205,51 @@
         <v>302</v>
       </c>
       <c r="D15" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>461</v>
       </c>
       <c r="I15" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>763</v>
       </c>
       <c r="N15" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2150,46 +2258,46 @@
         <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>7660</v>
+        <v>7209</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>4013</v>
+        <v>3648</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
       </c>
       <c r="N16" s="7">
-        <v>11672</v>
+        <v>10857</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,46 +2309,46 @@
         <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>21829</v>
+        <v>20586</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
       </c>
       <c r="I17" s="7">
-        <v>25445</v>
+        <v>23530</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
       </c>
       <c r="N17" s="7">
-        <v>47273</v>
+        <v>44116</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,46 +2360,46 @@
         <v>194</v>
       </c>
       <c r="D18" s="7">
-        <v>199697</v>
+        <v>186804</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>348</v>
       </c>
       <c r="I18" s="7">
-        <v>262876</v>
+        <v>265085</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>542</v>
       </c>
       <c r="N18" s="7">
-        <v>462573</v>
+        <v>451889</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2303,97 +2411,97 @@
         <v>242</v>
       </c>
       <c r="D19" s="7">
-        <v>240847</v>
+        <v>236621</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>333</v>
       </c>
       <c r="I19" s="7">
-        <v>227844</v>
+        <v>215443</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>575</v>
       </c>
       <c r="N19" s="7">
-        <v>468692</v>
+        <v>452064</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>84</v>
       </c>
       <c r="D20" s="7">
-        <v>87219</v>
+        <v>85118</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>122</v>
       </c>
       <c r="I20" s="7">
-        <v>89665</v>
+        <v>83750</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>206</v>
       </c>
       <c r="N20" s="7">
-        <v>176885</v>
+        <v>168868</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,51 +2513,51 @@
         <v>546</v>
       </c>
       <c r="D21" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>847</v>
       </c>
       <c r="I21" s="7">
-        <v>609843</v>
+        <v>591457</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>1393</v>
       </c>
       <c r="N21" s="7">
-        <v>1167095</v>
+        <v>1127795</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2458,46 +2566,46 @@
         <v>9</v>
       </c>
       <c r="D22" s="7">
-        <v>9930</v>
+        <v>9248</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
       </c>
       <c r="I22" s="7">
-        <v>7099</v>
+        <v>6480</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
       </c>
       <c r="N22" s="7">
-        <v>17029</v>
+        <v>15728</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,46 +2617,46 @@
         <v>34</v>
       </c>
       <c r="D23" s="7">
-        <v>40849</v>
+        <v>39088</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>87</v>
       </c>
       <c r="I23" s="7">
-        <v>58938</v>
+        <v>54160</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>121</v>
       </c>
       <c r="N23" s="7">
-        <v>99787</v>
+        <v>93248</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,46 +2668,46 @@
         <v>313</v>
       </c>
       <c r="D24" s="7">
-        <v>363954</v>
+        <v>533145</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>535</v>
       </c>
       <c r="I24" s="7">
-        <v>349202</v>
+        <v>317201</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>848</v>
       </c>
       <c r="N24" s="7">
-        <v>713157</v>
+        <v>850345</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,94 +2719,94 @@
         <v>221</v>
       </c>
       <c r="D25" s="7">
-        <v>213313</v>
+        <v>210543</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>403</v>
       </c>
       <c r="I25" s="7">
-        <v>253508</v>
+        <v>238320</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>624</v>
       </c>
       <c r="N25" s="7">
-        <v>466821</v>
+        <v>448863</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>88</v>
       </c>
       <c r="D26" s="7">
-        <v>95944</v>
+        <v>95762</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>105</v>
       </c>
       <c r="I26" s="7">
-        <v>78515</v>
+        <v>96721</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>193</v>
       </c>
       <c r="N26" s="7">
-        <v>174459</v>
+        <v>192483</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>191</v>
@@ -2713,46 +2821,46 @@
         <v>665</v>
       </c>
       <c r="D27" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>1141</v>
       </c>
       <c r="I27" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>1806</v>
       </c>
       <c r="N27" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,46 +2874,46 @@
         <v>10</v>
       </c>
       <c r="D28" s="7">
-        <v>7948</v>
+        <v>7517</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
       </c>
       <c r="I28" s="7">
-        <v>10277</v>
+        <v>9477</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>26</v>
       </c>
       <c r="N28" s="7">
-        <v>18224</v>
+        <v>16994</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,46 +2925,46 @@
         <v>47</v>
       </c>
       <c r="D29" s="7">
-        <v>43636</v>
+        <v>40482</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>102</v>
       </c>
       <c r="I29" s="7">
-        <v>62925</v>
+        <v>57364</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>149</v>
       </c>
       <c r="N29" s="7">
-        <v>106561</v>
+        <v>97845</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,46 +2976,46 @@
         <v>340</v>
       </c>
       <c r="D30" s="7">
-        <v>302937</v>
+        <v>278986</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>505</v>
       </c>
       <c r="I30" s="7">
-        <v>296066</v>
+        <v>268823</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>845</v>
       </c>
       <c r="N30" s="7">
-        <v>599003</v>
+        <v>547808</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,97 +3027,97 @@
         <v>204</v>
       </c>
       <c r="D31" s="7">
-        <v>187626</v>
+        <v>179685</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>296</v>
       </c>
       <c r="I31" s="7">
-        <v>176141</v>
+        <v>164622</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>500</v>
       </c>
       <c r="N31" s="7">
-        <v>363768</v>
+        <v>344307</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
         <v>62</v>
       </c>
       <c r="D32" s="7">
-        <v>58011</v>
+        <v>54565</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>83</v>
       </c>
       <c r="I32" s="7">
-        <v>51654</v>
+        <v>47620</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M32" s="7">
         <v>145</v>
       </c>
       <c r="N32" s="7">
-        <v>109664</v>
+        <v>102185</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,99 +3129,99 @@
         <v>663</v>
       </c>
       <c r="D33" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H33" s="7">
         <v>1002</v>
       </c>
       <c r="I33" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>1665</v>
       </c>
       <c r="N33" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D34" s="7">
-        <v>7262</v>
+        <v>2721</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>7</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3702</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H34" s="7">
-        <v>43</v>
-      </c>
-      <c r="I34" s="7">
-        <v>22355</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>11</v>
+      </c>
+      <c r="N34" s="7">
+        <v>6423</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="M34" s="7">
-        <v>56</v>
-      </c>
-      <c r="N34" s="7">
-        <v>29617</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,49 +3230,49 @@
         <v>18</v>
       </c>
       <c r="C35" s="7">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D35" s="7">
-        <v>49672</v>
+        <v>18997</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="7">
+        <v>81</v>
+      </c>
+      <c r="I35" s="7">
+        <v>42261</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H35" s="7">
-        <v>228</v>
-      </c>
-      <c r="I35" s="7">
-        <v>124882</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>113</v>
+      </c>
+      <c r="N35" s="7">
+        <v>61259</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="P35" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="M35" s="7">
-        <v>308</v>
-      </c>
-      <c r="N35" s="7">
-        <v>174555</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,49 +3281,49 @@
         <v>28</v>
       </c>
       <c r="C36" s="7">
-        <v>584</v>
+        <v>317</v>
       </c>
       <c r="D36" s="7">
-        <v>406959</v>
+        <v>205628</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H36" s="7">
+        <v>450</v>
+      </c>
+      <c r="I36" s="7">
+        <v>424992</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="H36" s="7">
-        <v>933</v>
-      </c>
-      <c r="I36" s="7">
-        <v>615394</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>767</v>
+      </c>
+      <c r="N36" s="7">
+        <v>630620</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="M36" s="7">
-        <v>1517</v>
-      </c>
-      <c r="N36" s="7">
-        <v>1022354</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,100 +3332,100 @@
         <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>274</v>
+        <v>168</v>
       </c>
       <c r="D37" s="7">
-        <v>176019</v>
+        <v>106130</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H37" s="7">
+        <v>240</v>
+      </c>
+      <c r="I37" s="7">
+        <v>113467</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H37" s="7">
-        <v>415</v>
-      </c>
-      <c r="I37" s="7">
-        <v>213683</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>408</v>
+      </c>
+      <c r="N37" s="7">
+        <v>219597</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="M37" s="7">
-        <v>689</v>
-      </c>
-      <c r="N37" s="7">
-        <v>389702</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="7">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D38" s="7">
-        <v>57842</v>
+        <v>34689</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H38" s="7">
+        <v>49</v>
+      </c>
+      <c r="I38" s="7">
+        <v>23946</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="K38" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="H38" s="7">
-        <v>89</v>
-      </c>
-      <c r="I38" s="7">
-        <v>50323</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>98</v>
+      </c>
+      <c r="N38" s="7">
+        <v>58635</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="M38" s="7">
-        <v>166</v>
-      </c>
-      <c r="N38" s="7">
-        <v>108165</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,102 +3434,102 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D39" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H39" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I39" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M39" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N39" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>277</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D40" s="7">
-        <v>34175</v>
+        <v>4161</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" s="7">
+        <v>36</v>
+      </c>
+      <c r="I40" s="7">
+        <v>16587</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H40" s="7">
-        <v>80</v>
-      </c>
-      <c r="I40" s="7">
-        <v>52406</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="M40" s="7">
+        <v>45</v>
+      </c>
+      <c r="N40" s="7">
+        <v>20749</v>
+      </c>
+      <c r="O40" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="M40" s="7">
-        <v>119</v>
-      </c>
-      <c r="N40" s="7">
-        <v>86581</v>
-      </c>
-      <c r="O40" s="7" t="s">
+      <c r="P40" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,49 +3538,49 @@
         <v>18</v>
       </c>
       <c r="C41" s="7">
+        <v>48</v>
+      </c>
+      <c r="D41" s="7">
+        <v>27215</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H41" s="7">
+        <v>147</v>
+      </c>
+      <c r="I41" s="7">
+        <v>70104</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M41" s="7">
         <v>195</v>
       </c>
-      <c r="D41" s="7">
-        <v>181828</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H41" s="7">
-        <v>482</v>
-      </c>
-      <c r="I41" s="7">
-        <v>325475</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="K41" s="7" t="s">
+      <c r="N41" s="7">
+        <v>97320</v>
+      </c>
+      <c r="O41" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="P41" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="M41" s="7">
-        <v>677</v>
-      </c>
-      <c r="N41" s="7">
-        <v>507303</v>
-      </c>
-      <c r="O41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,49 +3589,49 @@
         <v>28</v>
       </c>
       <c r="C42" s="7">
-        <v>1567</v>
+        <v>267</v>
       </c>
       <c r="D42" s="7">
-        <v>1497411</v>
+        <v>169163</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="H42" s="7">
+        <v>483</v>
+      </c>
+      <c r="I42" s="7">
+        <v>233109</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="K42" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="H42" s="7">
-        <v>2555</v>
-      </c>
-      <c r="I42" s="7">
-        <v>1812799</v>
-      </c>
-      <c r="J42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="M42" s="7">
+        <v>750</v>
+      </c>
+      <c r="N42" s="7">
+        <v>402272</v>
+      </c>
+      <c r="O42" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="P42" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="M42" s="7">
-        <v>4122</v>
-      </c>
-      <c r="N42" s="7">
-        <v>3310210</v>
-      </c>
-      <c r="O42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,79 +3640,79 @@
         <v>38</v>
       </c>
       <c r="C43" s="7">
-        <v>1144</v>
+        <v>106</v>
       </c>
       <c r="D43" s="7">
-        <v>1138918</v>
+        <v>62242</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="H43" s="7">
+        <v>175</v>
+      </c>
+      <c r="I43" s="7">
+        <v>84525</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="K43" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="H43" s="7">
-        <v>1714</v>
-      </c>
-      <c r="I43" s="7">
-        <v>1189526</v>
-      </c>
-      <c r="J43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="M43" s="7">
+        <v>281</v>
+      </c>
+      <c r="N43" s="7">
+        <v>146767</v>
+      </c>
+      <c r="O43" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="P43" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="M43" s="7">
-        <v>2858</v>
-      </c>
-      <c r="N43" s="7">
-        <v>2328444</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="7">
-        <v>431</v>
+        <v>28</v>
       </c>
       <c r="D44" s="7">
-        <v>532896</v>
+        <v>19978</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="H44" s="7">
+        <v>40</v>
+      </c>
+      <c r="I44" s="7">
+        <v>21505</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="H44" s="7">
-        <v>535</v>
-      </c>
-      <c r="I44" s="7">
-        <v>454770</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>316</v>
@@ -3613,10 +3721,10 @@
         <v>317</v>
       </c>
       <c r="M44" s="7">
-        <v>966</v>
+        <v>68</v>
       </c>
       <c r="N44" s="7">
-        <v>987667</v>
+        <v>41483</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>318</v>
@@ -3625,7 +3733,7 @@
         <v>319</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>320</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,63 +3742,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>458</v>
+      </c>
+      <c r="D45" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="7">
+        <v>881</v>
+      </c>
+      <c r="I45" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N45" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>39</v>
+      </c>
+      <c r="D46" s="7">
+        <v>31996</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H46" s="7">
+        <v>80</v>
+      </c>
+      <c r="I46" s="7">
+        <v>47204</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M46" s="7">
+        <v>119</v>
+      </c>
+      <c r="N46" s="7">
+        <v>79200</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="7">
+        <v>195</v>
+      </c>
+      <c r="D47" s="7">
+        <v>172987</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H47" s="7">
+        <v>482</v>
+      </c>
+      <c r="I47" s="7">
+        <v>350968</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="M47" s="7">
+        <v>677</v>
+      </c>
+      <c r="N47" s="7">
+        <v>523955</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1567</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1587776</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H48" s="7">
+        <v>2555</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1762628</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M48" s="7">
+        <v>4122</v>
+      </c>
+      <c r="N48" s="7">
+        <v>3350404</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1144</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1120757</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1714</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1108468</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M49" s="7">
+        <v>2858</v>
+      </c>
+      <c r="N49" s="7">
+        <v>2229225</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="7">
+        <v>431</v>
+      </c>
+      <c r="D50" s="7">
+        <v>546300</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H50" s="7">
+        <v>535</v>
+      </c>
+      <c r="I50" s="7">
+        <v>442467</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="M50" s="7">
+        <v>966</v>
+      </c>
+      <c r="N50" s="7">
+        <v>988768</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3376</v>
       </c>
-      <c r="D45" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="7">
         <v>5366</v>
       </c>
-      <c r="I45" s="7">
-        <v>3834976</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>3711735</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M51" s="7">
         <v>8742</v>
       </c>
-      <c r="N45" s="7">
-        <v>7220204</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>321</v>
+      <c r="N51" s="7">
+        <v>7171552</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
